--- a/tables/crosstab/crosstab_safety_time/monitoring VS visited.xlsx
+++ b/tables/crosstab/crosstab_safety_time/monitoring VS visited.xlsx
@@ -468,40 +468,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H2">
-        <v>7.58</v>
+        <v>7.5</v>
       </c>
       <c r="I2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J2">
-        <v>14.91</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>15.65</v>
+        <v>15.75</v>
       </c>
       <c r="M2">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -521,28 +521,28 @@
         <v>29</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H3">
-        <v>14.67</v>
+        <v>14.5</v>
       </c>
       <c r="I3">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>12.22</v>
+        <v>12.5</v>
       </c>
       <c r="K3">
-        <v>7.09</v>
+        <v>7.25</v>
       </c>
       <c r="L3">
-        <v>21.27</v>
+        <v>21.5</v>
       </c>
       <c r="M3">
-        <v>55.75</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>22.25</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
-        <v>27.14</v>
+        <v>27.5</v>
       </c>
       <c r="K4">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>36.92</v>
+        <v>37.25</v>
       </c>
       <c r="M4">
         <v>100</v>
